--- a/CashFlow/MNST_cashflow.xlsx
+++ b/CashFlow/MNST_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1345000000.0</v>
+        <v>30304000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>1373000000.0</v>
+        <v>-785000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1030558000.0</v>
+        <v>-49536000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>692057000.0</v>
+        <v>-60181000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>316053000.0</v>
+        <v>-85222000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-60755000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>18696000.0</v>
+        <v>1147000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-50372000.0</v>
+        <v>1124000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-47183000.0</v>
+        <v>842237000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>11711000.0</v>
+        <v>613031000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1664000.0</v>
+        <v>316312000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>16018000.0</v>
